--- a/script/result_llm_tranform/ardupilot_docs/ap_throw-mode/result.xlsx
+++ b/script/result_llm_tranform/ardupilot_docs/ap_throw-mode/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowWidth="26860" windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
   <si>
     <t>index</t>
   </si>
@@ -407,7 +407,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,13 +418,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -892,148 +885,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,8 +1386,8 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1555,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="185" spans="1:12">
+    <row r="5" ht="84" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1593,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="168" spans="1:12">
+    <row r="6" ht="84" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1631,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="168" spans="1:12">
+    <row r="7" ht="101" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1707,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="202" spans="1:12">
+    <row r="9" ht="118" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1745,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="252" spans="1:12">
+    <row r="10" ht="101" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1783,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="404" spans="1:12">
+    <row r="11" ht="219" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1821,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:12">
+    <row r="12" ht="219" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1859,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="269" spans="1:12">
+    <row r="13" ht="135" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="303" spans="1:12">
+    <row r="15" ht="152" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1973,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="236" spans="1:12">
+    <row r="16" ht="168" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2011,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" ht="269" spans="1:12">
+    <row r="17" ht="135" spans="1:12">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2049,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="269" spans="1:12">
+    <row r="18" ht="135" spans="1:12">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2303,13 +2296,13 @@
         <v>119</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>7</v>
+      <c r="L24" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:12">
@@ -2331,8 +2324,17 @@
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>7</v>
+      <c r="H25">
+        <f>COUNTIF(H2:H24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>COUNTIF(J2:J24,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f>COUNTIF(L2:L24,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:12">

--- a/script/result_llm_tranform/ardupilot_docs/ap_throw-mode/result.xlsx
+++ b/script/result_llm_tranform/ardupilot_docs/ap_throw-mode/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
   <si>
     <t>index</t>
   </si>
@@ -407,7 +407,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,13 +418,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -892,148 +885,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,23 +1386,23 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="20.6346153846154" customWidth="1"/>
-    <col min="4" max="4" width="38.3846153846154" customWidth="1"/>
-    <col min="5" max="5" width="15.2115384615385" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
-    <col min="7" max="7" width="65.5384615384615" customWidth="1"/>
-    <col min="9" max="9" width="76.3557692307692" customWidth="1"/>
-    <col min="11" max="11" width="77.9230769230769" customWidth="1"/>
-    <col min="12" max="12" width="7.94230769230769" customWidth="1"/>
+    <col min="2" max="2" width="20.6388888888889" customWidth="1"/>
+    <col min="4" max="4" width="38.3888888888889" customWidth="1"/>
+    <col min="5" max="5" width="15.212962962963" customWidth="1"/>
+    <col min="6" max="6" width="32.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="65.537037037037" customWidth="1"/>
+    <col min="9" max="9" width="76.3518518518518" customWidth="1"/>
+    <col min="11" max="11" width="77.9259259259259" customWidth="1"/>
+    <col min="12" max="12" width="7.94444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:12">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="185" spans="1:12">
+    <row r="5" ht="100.8" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1593,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="168" spans="1:12">
+    <row r="6" ht="86.4" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1631,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="168" spans="1:12">
+    <row r="7" ht="115.2" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1707,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="202" spans="1:12">
+    <row r="9" ht="129.6" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1745,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="252" spans="1:12">
+    <row r="10" ht="100.8" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1783,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="404" spans="1:12">
+    <row r="11" ht="201.6" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1821,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:12">
+    <row r="12" ht="187.2" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1859,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="269" spans="1:12">
+    <row r="13" ht="115.2" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1897,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="84" spans="1:12">
+    <row r="14" ht="72" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="303" spans="1:12">
+    <row r="15" ht="129.6" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1973,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="236" spans="1:12">
+    <row r="16" ht="144" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2011,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" ht="269" spans="1:12">
+    <row r="17" ht="115.2" spans="1:12">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2049,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="269" spans="1:12">
+    <row r="18" ht="129.6" spans="1:12">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2087,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="135" spans="1:12">
+    <row r="19" ht="129.6" spans="1:12">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2125,7 +2118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" ht="101" spans="1:12">
+    <row r="20" ht="100.8" spans="1:12">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2163,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="1:12">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2200,7 +2193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="1:12">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -2238,7 +2231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="1:12">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -2308,11 +2301,11 @@
       <c r="K24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="17" spans="1:12">
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2335,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" ht="17" spans="1:12">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>

--- a/script/result_llm_tranform/ardupilot_docs/ap_throw-mode/result.xlsx
+++ b/script/result_llm_tranform/ardupilot_docs/ap_throw-mode/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="15060"/>
+    <workbookView windowWidth="30760" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="120">
   <si>
     <t>index</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>{'sentence': 'This mode requires GPS.', 'formula': 'G(¬M → GPS)', 'explanation': 'Here, M represents the mode being active. The formula states that globally, if the mode is not active, then GPS must be available.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Sentence not found.', 'formula': 'G(¬S)', 'explanation': 'This formula represents the absence of a sentence (S) globally. In MTL, we can use negation to indicate the non-existence of a condition throughout the entire timeline.'}</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="G18" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2298,14 +2295,10 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="17" spans="1:12">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" ht="17" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2330,10 +2323,6 @@
       </c>
       <c r="J25">
         <f>COUNTIF(J2:J24,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <f>COUNTIF(L2:L24,0)</f>
         <v>1</v>
       </c>
     </row>
